--- a/DDF/Phase2.1/TY_11/TestData.xlsx
+++ b/DDF/Phase2.1/TY_11/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -500,6 +500,12 @@
   <si>
     <t>Saved Successfully.
 MX</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>Do you want to delete payment transaction?</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,6 +619,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="C37:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,6 +1497,9 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
+      <c r="H37" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="N37">
         <v>123456</v>
       </c>
@@ -1659,6 +1669,9 @@
       <c r="C54" t="s">
         <v>4</v>
       </c>
+      <c r="N54">
+        <v>123456</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1698,6 +1711,9 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
+      <c r="D57" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1805,6 +1821,9 @@
       <c r="A70" t="s">
         <v>105</v>
       </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
       <c r="D70" t="s">
         <v>122</v>
       </c>
@@ -1813,6 +1832,9 @@
       <c r="A71" t="s">
         <v>106</v>
       </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
       <c r="D71" t="s">
         <v>122</v>
       </c>
@@ -1858,6 +1880,9 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>128</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
       </c>
       <c r="F76">
         <v>123456</v>

--- a/DDF/Phase2.1/TY_11/TestData.xlsx
+++ b/DDF/Phase2.1/TY_11/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="169">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -417,9 +417,6 @@
     <t>TC_ID_100</t>
   </si>
   <si>
-    <t>TC_ID_103</t>
-  </si>
-  <si>
     <t>Please enter the invoice split count less than 7</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>TC_29</t>
   </si>
   <si>
-    <t>TC_32</t>
-  </si>
-  <si>
     <t>Default ProdBuy-3</t>
   </si>
   <si>
@@ -459,13 +453,7 @@
     <t>Default ProdBuy-2</t>
   </si>
   <si>
-    <t>TC_40</t>
-  </si>
-  <si>
     <t>Default ProdBuy-1</t>
-  </si>
-  <si>
-    <t>TC_45</t>
   </si>
   <si>
     <t>test@12.4 01</t>
@@ -506,6 +494,39 @@
   </si>
   <si>
     <t>Do you want to delete payment transaction?</t>
+  </si>
+  <si>
+    <t>TOTAL           $</t>
+  </si>
+  <si>
+    <t>TC_32,TC_31</t>
+  </si>
+  <si>
+    <t>,TC_39</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>IEPS</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>NOTAX</t>
+  </si>
+  <si>
+    <t>Item Disc</t>
+  </si>
+  <si>
+    <t>Category Disc</t>
+  </si>
+  <si>
+    <t>TC_ID_103,104</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-1</t>
   </si>
 </sst>
 </file>
@@ -901,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +937,7 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,8 +983,23 @@
       <c r="O1" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1019,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1050,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1191,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1166,7 +1202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1232,7 +1268,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1486,10 +1522,10 @@
         <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1498,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N37">
         <v>123456</v>
@@ -1712,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -1784,7 +1820,7 @@
         <v>114</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
         <v>115</v>
@@ -1868,19 +1904,22 @@
         <v>127</v>
       </c>
       <c r="D75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" t="s">
         <v>139</v>
       </c>
-      <c r="E75" t="s">
-        <v>140</v>
-      </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>128</v>
       </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
@@ -1921,103 +1960,127 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
         <v>132</v>
-      </c>
-      <c r="D79" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" t="s">
         <v>134</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>135</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>136</v>
       </c>
-      <c r="F80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>142</v>
       </c>
-      <c r="B82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
         <v>144</v>
       </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B85">
         <v>123456</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>16</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>152</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>156</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -2026,12 +2089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B89">
-        <v>123456789</v>
+        <v>1234567890</v>
       </c>
       <c r="C89" s="10"/>
     </row>
